--- a/Input_data/EST_US_trad_eco_cal_.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_.xlsx
@@ -827,7 +827,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>$-77.5B</t>
+          <t>$-78B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.65M</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_.xlsx
@@ -1281,7 +1281,11 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-12.6%</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
@@ -1302,7 +1306,11 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>174.9</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
@@ -1323,7 +1331,11 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>395.1</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
@@ -1344,7 +1356,11 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>136.7</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
@@ -1372,7 +1388,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>143K</t>
+          <t>139K</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1747,7 +1763,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>$12.5B</t>
+          <t>$12B</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1864,10 +1880,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>210K</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>2</t>
@@ -1892,7 +1912,11 @@
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>3</t>
@@ -1917,7 +1941,11 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>3</t>
@@ -2015,7 +2043,11 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.265%</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
@@ -2036,7 +2068,11 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
@@ -2057,7 +2093,11 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.13%</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
@@ -2078,7 +2118,11 @@
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.91%</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_.xlsx
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>150K</t>
+          <t>160K</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2472,7 +2472,11 @@
           <t>22K</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>29K</t>
@@ -2503,7 +2507,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>130K</t>
+          <t>134K</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2565,7 +2569,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>74.5</t>
+          <t>73.9</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_.xlsx
@@ -1426,22 +1426,30 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-1.178M</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>2</t>
@@ -1451,47 +1459,55 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>1844K</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1848K</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>223.25K</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>224K</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>3</t>
@@ -1506,20 +1522,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>-1.178M</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1531,20 +1547,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.099M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1556,13 +1572,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6.406M</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1581,13 +1597,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1606,13 +1622,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1631,13 +1647,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>6.406M</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1651,18 +1667,18 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1676,18 +1692,18 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1701,18 +1717,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.535%</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1726,51 +1742,47 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.195%</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
+          <t>-116Bcf</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>3</t>
@@ -1778,16 +1790,20 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1799,62 +1815,74 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYDEC</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeNOV</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>$12B</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Challenger Job CutsDEC</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>57.727K</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>65K</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>3</t>
@@ -1862,88 +1890,60 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>211K</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
-        </is>
-      </c>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1844K</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1848K</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>Challenger Job CutsDEC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>57.727K</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>224K</t>
+          <t>65K</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sunday January 05 2025</t>
+          <t>Monday January 06 2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -486,31 +486,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Monday January 06 2025</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fed Cook Speech</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>S&amp;P Global Composite PMI FinalDEC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>2</t>
@@ -525,23 +545,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalDEC</t>
+          <t>S&amp;P Global Services PMI FinalDEC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>56.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -553,28 +573,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalDEC</t>
+          <t>Factory Orders MoMNOV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -591,54 +611,46 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Factory Orders MoMNOV</t>
+          <t>Factory Orders ex TransportationNOV</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationNOV</t>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>3</t>
@@ -648,21 +660,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$25 million</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
@@ -678,13 +690,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>4.135%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -698,18 +710,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Year Note Auction</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.135%</t>
+          <t>4.117%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -721,24 +733,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Total Vehicle SalesDEC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.117%</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>16.5M</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>16.3M</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>3</t>
@@ -746,62 +762,66 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesDEC</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tuesday January 07 2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16.5M</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>16.3M</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tuesday January 07 2025</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$-73.8B</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$-78B</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$-70B</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>2</t>
@@ -816,23 +836,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>ExportsNOV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$-73.8B</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$-78B</t>
-        </is>
-      </c>
+          <t>$265.7B</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$-70B</t>
+          <t>$264B</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -849,19 +865,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ExportsNOV</t>
+          <t>ImportsNOV</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>$265.7B</t>
+          <t>$339.6B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$264B</t>
+          <t>$334B</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -873,54 +889,58 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ImportsNOV</t>
+          <t>Redbook YoYJAN/04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>$339.6B</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$334B</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/04</t>
+          <t>ISM Services PMIDEC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -932,23 +952,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ISM Services PMIDEC</t>
+          <t>JOLTs Job OpeningsNOV</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>7.744M</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>7.70M</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>7.69M</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -965,28 +985,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsNOV</t>
+          <t>ISM Services Business ActivityDEC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7.744M</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7.70M</t>
-        </is>
-      </c>
+          <t>53.7</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.69M</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -998,19 +1014,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityDEC</t>
+          <t>ISM Services EmploymentDEC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1027,19 +1043,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentDEC</t>
+          <t>ISM Services New OrdersDEC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1056,19 +1072,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersDEC</t>
+          <t>ISM Services PricesDEC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1085,19 +1101,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ISM Services PricesDEC</t>
+          <t>JOLTs Job QuitsNOV</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>3.326M</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>3.31M</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1109,26 +1125,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsNOV</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.326M</t>
+          <t>4.280%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.31M</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>3</t>
@@ -1138,18 +1150,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>42-Day Bill Auction</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.280%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1163,86 +1175,86 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>-1.442M</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/03</t>
+          <t>LMI Logistics Managers IndexDEC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-1.442M</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexDEC</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Wednesday January 08 2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Wednesday January 08 2025</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/03</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1252,20 +1264,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/03</t>
+          <t>MBA Mortgage ApplicationsJAN/03</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>-12.6%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1277,13 +1289,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/03</t>
+          <t>MBA Mortgage Market IndexJAN/03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-12.6%</t>
+          <t>174.9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1302,13 +1314,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/03</t>
+          <t>MBA Mortgage Refinance IndexJAN/03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>174.9</t>
+          <t>395.1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1327,13 +1339,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/03</t>
+          <t>MBA Purchase IndexJAN/03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>395.1</t>
+          <t>136.7</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1347,55 +1359,51 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/03</t>
+          <t>ADP Employment ChangeDEC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>136.7</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+          <t>146K</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>139K</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeDEC</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>146K</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>139K</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>2</t>
@@ -1410,13 +1418,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Initial Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>211K</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>213K</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>2</t>
@@ -1431,28 +1451,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/04</t>
+          <t>Continuing Jobless ClaimsDEC/28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>211K</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
+          <t>1844K</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>213K</t>
+          <t>1848K</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1464,19 +1480,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsDEC/28</t>
+          <t>Jobless Claims 4-week AverageJAN/04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1844K</t>
+          <t>223.25K</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1848K</t>
+          <t>224K</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1488,29 +1504,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/04</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>223.25K</t>
+          <t>-1.178M</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1522,13 +1534,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-1.178M</t>
+          <t>7.717M</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1547,20 +1559,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/03</t>
+          <t>EIA Crude Oil Imports ChangeJAN/03</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.717M</t>
+          <t>0.323M</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1572,13 +1584,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/03</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.323M</t>
+          <t>-0.142M</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1597,13 +1609,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/03</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-0.142M</t>
+          <t>0.099M</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1622,13 +1634,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/03</t>
+          <t>EIA Distillate Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.099M</t>
+          <t>6.406M</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1647,13 +1659,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/03</t>
+          <t>EIA Gasoline Production ChangeJAN/03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.406M</t>
+          <t>-0.959M</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1672,13 +1684,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/03</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.959M</t>
+          <t>-0.416M</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1697,13 +1709,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/03</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-0.416M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1717,18 +1729,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/03</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -1742,18 +1754,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>-116Bcf</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1767,18 +1779,18 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/03</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-116Bcf</t>
+          <t>4.535%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1792,76 +1804,72 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>4.535%</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Consumer Credit ChangeNOV</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$19.24B</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>$12B</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>$14.0B</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeNOV</t>
+          <t>Used Car Prices MoMDEC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>$19.24B</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>$12B</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>$14.0B</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>3</t>
@@ -1872,13 +1880,13 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMDEC</t>
+          <t>Used Car Prices YoYDEC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1890,116 +1898,120 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYDEC</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Thursday January 09 2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Thursday January 09 2025</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Challenger Job CutsDEC</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>57.727K</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Challenger Job CutsDEC</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>57.727K</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>65K</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Wholesale Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMNOV</t>
+          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+          <t>$25 million</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>3</t>
@@ -2009,21 +2021,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 1 to 2.5 yrs</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>$25 million</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.265%</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
@@ -2039,13 +2051,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4.265%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2059,18 +2071,18 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2089,13 +2101,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/09</t>
+          <t>30-Year Mortgage RateJAN/09</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>6.91%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2109,37 +2121,33 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:40 PM</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/09</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>6.91%</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>12:40 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Fed Schmid Speech</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2155,12 +2163,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>01:35 PM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2176,61 +2184,73 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>01:35 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Fed Balance SheetJAN/08</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/08</t>
-        </is>
-      </c>
+          <t>Friday January 10 2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>$6.85T</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsDEC</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>160K</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>200K</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2240,23 +2260,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>160K</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2273,28 +2293,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2306,23 +2326,23 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2339,23 +2359,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2372,24 +2388,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2401,23 +2421,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2434,19 +2450,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>33K</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>29K</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2463,23 +2483,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>194K</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>134K</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>29K</t>
+          <t>185K</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -2496,23 +2516,19 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>134K</t>
-        </is>
-      </c>
+          <t>7.8%</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>185K</t>
+          <t>7.9%</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2524,29 +2540,33 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7.8%</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>73.9</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2558,28 +2578,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>73.9</t>
-        </is>
-      </c>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2591,19 +2607,19 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -2620,19 +2636,19 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -2649,19 +2665,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -2673,26 +2689,18 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
           <t>3</t>
@@ -2702,16 +2710,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
@@ -2728,13 +2740,13 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>588</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2748,32 +2760,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
+          <t>Sunday January 12 2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -2786,7 +2786,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
+          <t>Monday January 13 2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -2799,39 +2799,47 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsDEC</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
           <t>3</t>
@@ -2846,7 +2854,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -2862,16 +2870,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.760B</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
@@ -2888,13 +2900,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -2913,13 +2925,13 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>1.98B</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -2933,92 +2945,96 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>$-367B</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3030,24 +3046,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3059,20 +3071,24 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3084,19 +3100,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>146.4</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3113,21 +3129,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>146.4</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
           <t>3</t>
@@ -3142,13 +3154,13 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -3167,17 +3179,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>3</t>
@@ -3187,26 +3203,18 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
           <t>3</t>
@@ -3216,16 +3224,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>10:05 AM</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
@@ -3237,61 +3249,57 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>10:05 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
+        </is>
+      </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3301,7 +3309,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3310,7 +3318,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3330,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3343,7 +3351,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -3364,7 +3372,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -3380,21 +3388,29 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3406,19 +3422,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -3435,19 +3451,19 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -3464,19 +3480,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -3493,24 +3509,24 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>315.49</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>313.8</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3522,19 +3538,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>316.441</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>313.8</t>
+          <t>317.4</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -3551,21 +3567,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>317.4</t>
-        </is>
-      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
           <t>2</t>
@@ -3575,20 +3587,16 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
@@ -3605,7 +3613,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -3626,7 +3634,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -3635,7 +3643,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3655,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -3668,7 +3676,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -3689,7 +3697,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -3710,7 +3718,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -3731,7 +3739,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -3752,7 +3760,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -3768,12 +3776,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -3789,36 +3797,15 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
